--- a/publipostage/0103yxp25/liste_essais_cliniques_identifies_0103yxp25.xlsx
+++ b/publipostage/0103yxp25/liste_essais_cliniques_identifies_0103yxp25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>status_label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
@@ -488,28 +493,33 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>NCT01993394</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Influence of Hyperoxia and Hypergravity on Pulmonary Ventilation and Perfusion</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -521,32 +531,33 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NCT03433859</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>NCT04870814</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Prospective Multicentric Open Randomised Controlled Trial Comparing Topical Aluminium Chloride to OnabotulinumtoxinA Intradermal Injections in Residual Limb Hyperhidrosis (Lower Limbs)</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>SALUTOX</t>
-        </is>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
+          <t>Comparison of 4 Tactical Tourniquets Used in War Medicine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -558,28 +569,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NCT04870814</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>NCT03433859</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Comparison of 4 Tactical Tourniquets Used in War Medicine</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="b">
-        <v>0</v>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Prospective Multicentric Open Randomised Controlled Trial Comparing Topical Aluminium Chloride to OnabotulinumtoxinA Intradermal Injections in Residual Limb Hyperhidrosis (Lower Limbs)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>SALUTOX</t>
+        </is>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -591,32 +611,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>NCT04549194</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Contribution of L-Tyrosine to Recovery From Operational Strain on Return From External Operation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>USOP</t>
         </is>
       </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -628,32 +653,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>NCT04518254</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Contribution of L-Tyrosine to Human Decision Making in Stressful Situations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>TYRO-STRESS</t>
         </is>
       </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>

--- a/publipostage/0103yxp25/liste_essais_cliniques_identifies_0103yxp25.xlsx
+++ b/publipostage/0103yxp25/liste_essais_cliniques_identifies_0103yxp25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -522,6 +527,11 @@
       <c r="J2" t="b">
         <v>0</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -560,6 +570,11 @@
       <c r="J3" t="b">
         <v>0</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -602,6 +617,11 @@
       <c r="J4" t="b">
         <v>0</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -644,6 +664,11 @@
       <c r="J5" t="b">
         <v>0</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -685,6 +710,11 @@
       </c>
       <c r="J6" t="b">
         <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
       </c>
     </row>
   </sheetData>
